--- a/pred_ohlcv/54_21/2019-10-20 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 LOOM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>257551.3983999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>257551.3983999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>257551.3983999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>241751.3983999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>241720.5175999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>239520.5175999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>236663.5175999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>236466.4931999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-49827.65440000009</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-49817.65440000009</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-49837.65440000009</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-49837.65440000009</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-48200.63960000009</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-240172.4261000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-244368.1252000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-241478.9542000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-442972.1360000001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-611112.5766000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-606549.9403000001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-639445.1085000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-639445.1085000001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-654546.9730000001</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-670096.6944000002</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-486769.9952000001</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-539633.1291000001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-539633.1291000001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-538677.1291000001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-540409.1291000001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-540409.1291000001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-540409.1291000001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-539605.4872000001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-539605.4872000001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-20 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 LOOM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>257441.3983999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>257551.3983999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>257551.3983999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>257551.3983999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>241751.3983999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>241720.5175999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>239520.5175999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>236663.5175999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>236466.4931999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-49827.65440000009</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-49817.65440000009</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-49837.65440000009</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-49837.65440000009</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-48200.63960000009</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-240172.4261000001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-244368.1252000001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-241478.9542000001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-442972.1360000001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-611112.5766000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-606549.9403000001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-639445.1085000001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-639445.1085000001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-670096.6944000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-486769.9952000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-500367.1451000001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-539633.1291000001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-538677.1291000001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-540409.1291000001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-540409.1291000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-540409.1291000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-539605.4872000001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-539605.4872000001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
